--- a/dataset/2nd_data/kim/kim_product_3_data.xlsx
+++ b/dataset/2nd_data/kim/kim_product_3_data.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -59,12 +56,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -413,8 +409,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>43227</v>
+      <c r="A2" t="n">
+        <v>20180507</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -453,8 +449,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>43227</v>
+      <c r="A3" t="n">
+        <v>20180507</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -493,8 +489,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>43227</v>
+      <c r="A4" t="n">
+        <v>20180507</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -533,8 +529,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>43227</v>
+      <c r="A5" t="n">
+        <v>20180507</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -573,8 +569,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>43227</v>
+      <c r="A6" t="n">
+        <v>20180507</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -613,8 +609,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>43227</v>
+      <c r="A7" t="n">
+        <v>20180507</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -653,8 +649,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>43227</v>
+      <c r="A8" t="n">
+        <v>20180507</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -693,8 +689,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>43227</v>
+      <c r="A9" t="n">
+        <v>20180507</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -733,8 +729,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>43227</v>
+      <c r="A10" t="n">
+        <v>20180507</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -773,8 +769,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>43227</v>
+      <c r="A11" t="n">
+        <v>20180507</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -813,8 +809,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>43227</v>
+      <c r="A12" t="n">
+        <v>20180507</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -853,8 +849,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>43227</v>
+      <c r="A13" t="n">
+        <v>20180507</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -893,8 +889,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>43227</v>
+      <c r="A14" t="n">
+        <v>20180507</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -933,8 +929,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>43227</v>
+      <c r="A15" t="n">
+        <v>20180507</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -973,8 +969,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>43227</v>
+      <c r="A16" t="n">
+        <v>20180507</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1013,8 +1009,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>43227</v>
+      <c r="A17" t="n">
+        <v>20180507</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1053,8 +1049,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>43234</v>
+      <c r="A18" t="n">
+        <v>20180514</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1093,8 +1089,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>43234</v>
+      <c r="A19" t="n">
+        <v>20180514</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1133,8 +1129,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>43234</v>
+      <c r="A20" t="n">
+        <v>20180514</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1173,8 +1169,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>43234</v>
+      <c r="A21" t="n">
+        <v>20180514</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1213,8 +1209,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>43234</v>
+      <c r="A22" t="n">
+        <v>20180514</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1253,8 +1249,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>43234</v>
+      <c r="A23" t="n">
+        <v>20180514</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1293,8 +1289,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>43234</v>
+      <c r="A24" t="n">
+        <v>20180514</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1333,8 +1329,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>43234</v>
+      <c r="A25" t="n">
+        <v>20180514</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1373,8 +1369,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>43234</v>
+      <c r="A26" t="n">
+        <v>20180514</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1413,8 +1409,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>43234</v>
+      <c r="A27" t="n">
+        <v>20180514</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1453,8 +1449,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>43234</v>
+      <c r="A28" t="n">
+        <v>20180514</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1493,8 +1489,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>43234</v>
+      <c r="A29" t="n">
+        <v>20180514</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1533,8 +1529,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>43234</v>
+      <c r="A30" t="n">
+        <v>20180514</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1573,8 +1569,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>43234</v>
+      <c r="A31" t="n">
+        <v>20180514</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1613,8 +1609,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>43234</v>
+      <c r="A32" t="n">
+        <v>20180514</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1653,8 +1649,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>43234</v>
+      <c r="A33" t="n">
+        <v>20180514</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1693,8 +1689,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>43241</v>
+      <c r="A34" t="n">
+        <v>20180521</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1733,8 +1729,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>43241</v>
+      <c r="A35" t="n">
+        <v>20180521</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1773,8 +1769,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>43241</v>
+      <c r="A36" t="n">
+        <v>20180521</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1813,8 +1809,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>43241</v>
+      <c r="A37" t="n">
+        <v>20180521</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1853,8 +1849,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>43241</v>
+      <c r="A38" t="n">
+        <v>20180521</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1893,8 +1889,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>43241</v>
+      <c r="A39" t="n">
+        <v>20180521</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1933,8 +1929,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>43241</v>
+      <c r="A40" t="n">
+        <v>20180521</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1973,8 +1969,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>43241</v>
+      <c r="A41" t="n">
+        <v>20180521</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2013,8 +2009,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>43241</v>
+      <c r="A42" t="n">
+        <v>20180521</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2053,8 +2049,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>43241</v>
+      <c r="A43" t="n">
+        <v>20180521</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2093,8 +2089,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>43241</v>
+      <c r="A44" t="n">
+        <v>20180521</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2133,8 +2129,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43241</v>
+      <c r="A45" t="n">
+        <v>20180521</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2173,8 +2169,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>43241</v>
+      <c r="A46" t="n">
+        <v>20180521</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2213,8 +2209,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>43241</v>
+      <c r="A47" t="n">
+        <v>20180521</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2253,8 +2249,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>43241</v>
+      <c r="A48" t="n">
+        <v>20180521</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2293,8 +2289,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>43241</v>
+      <c r="A49" t="n">
+        <v>20180521</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2333,8 +2329,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>43248</v>
+      <c r="A50" t="n">
+        <v>20180528</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2373,8 +2369,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>43248</v>
+      <c r="A51" t="n">
+        <v>20180528</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2413,8 +2409,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>43248</v>
+      <c r="A52" t="n">
+        <v>20180528</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2453,8 +2449,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>43248</v>
+      <c r="A53" t="n">
+        <v>20180528</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2493,8 +2489,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>43248</v>
+      <c r="A54" t="n">
+        <v>20180528</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2533,8 +2529,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>43248</v>
+      <c r="A55" t="n">
+        <v>20180528</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2573,8 +2569,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>43248</v>
+      <c r="A56" t="n">
+        <v>20180528</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2613,8 +2609,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>43248</v>
+      <c r="A57" t="n">
+        <v>20180528</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2653,8 +2649,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>43248</v>
+      <c r="A58" t="n">
+        <v>20180528</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2693,8 +2689,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>43248</v>
+      <c r="A59" t="n">
+        <v>20180528</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2733,8 +2729,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>43248</v>
+      <c r="A60" t="n">
+        <v>20180528</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2773,8 +2769,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>43248</v>
+      <c r="A61" t="n">
+        <v>20180528</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2813,8 +2809,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>43248</v>
+      <c r="A62" t="n">
+        <v>20180528</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2853,8 +2849,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>43248</v>
+      <c r="A63" t="n">
+        <v>20180528</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2893,8 +2889,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>43248</v>
+      <c r="A64" t="n">
+        <v>20180528</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2933,8 +2929,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>43248</v>
+      <c r="A65" t="n">
+        <v>20180528</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2973,8 +2969,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>43255</v>
+      <c r="A66" t="n">
+        <v>20180604</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3013,8 +3009,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>43255</v>
+      <c r="A67" t="n">
+        <v>20180604</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3053,8 +3049,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>43255</v>
+      <c r="A68" t="n">
+        <v>20180604</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3093,8 +3089,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>43255</v>
+      <c r="A69" t="n">
+        <v>20180604</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3133,8 +3129,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>43255</v>
+      <c r="A70" t="n">
+        <v>20180604</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3173,8 +3169,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>43255</v>
+      <c r="A71" t="n">
+        <v>20180604</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3213,8 +3209,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>43255</v>
+      <c r="A72" t="n">
+        <v>20180604</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3253,8 +3249,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>43255</v>
+      <c r="A73" t="n">
+        <v>20180604</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3293,8 +3289,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>43255</v>
+      <c r="A74" t="n">
+        <v>20180604</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -3333,8 +3329,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>43255</v>
+      <c r="A75" t="n">
+        <v>20180604</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -3373,8 +3369,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>43255</v>
+      <c r="A76" t="n">
+        <v>20180604</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3413,8 +3409,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>43255</v>
+      <c r="A77" t="n">
+        <v>20180604</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3453,8 +3449,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>43255</v>
+      <c r="A78" t="n">
+        <v>20180604</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3493,8 +3489,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>43255</v>
+      <c r="A79" t="n">
+        <v>20180604</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3533,8 +3529,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>43255</v>
+      <c r="A80" t="n">
+        <v>20180604</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3573,8 +3569,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>43255</v>
+      <c r="A81" t="n">
+        <v>20180604</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3613,8 +3609,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>43262</v>
+      <c r="A82" t="n">
+        <v>20180611</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3653,8 +3649,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>43262</v>
+      <c r="A83" t="n">
+        <v>20180611</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3693,8 +3689,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>43262</v>
+      <c r="A84" t="n">
+        <v>20180611</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3733,8 +3729,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>43262</v>
+      <c r="A85" t="n">
+        <v>20180611</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3773,8 +3769,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>43262</v>
+      <c r="A86" t="n">
+        <v>20180611</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3813,8 +3809,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>43262</v>
+      <c r="A87" t="n">
+        <v>20180611</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3853,8 +3849,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>43262</v>
+      <c r="A88" t="n">
+        <v>20180611</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3893,8 +3889,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>43262</v>
+      <c r="A89" t="n">
+        <v>20180611</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3933,8 +3929,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>43262</v>
+      <c r="A90" t="n">
+        <v>20180611</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3973,8 +3969,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>43262</v>
+      <c r="A91" t="n">
+        <v>20180611</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -4013,8 +4009,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>43262</v>
+      <c r="A92" t="n">
+        <v>20180611</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -4053,8 +4049,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>43262</v>
+      <c r="A93" t="n">
+        <v>20180611</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -4093,8 +4089,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>43262</v>
+      <c r="A94" t="n">
+        <v>20180611</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -4133,8 +4129,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>43262</v>
+      <c r="A95" t="n">
+        <v>20180611</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -4173,8 +4169,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>43262</v>
+      <c r="A96" t="n">
+        <v>20180611</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -4213,8 +4209,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>43262</v>
+      <c r="A97" t="n">
+        <v>20180611</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -4253,8 +4249,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>43269</v>
+      <c r="A98" t="n">
+        <v>20180618</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -4293,8 +4289,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>43269</v>
+      <c r="A99" t="n">
+        <v>20180618</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -4333,8 +4329,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>43269</v>
+      <c r="A100" t="n">
+        <v>20180618</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -4373,8 +4369,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>43269</v>
+      <c r="A101" t="n">
+        <v>20180618</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -4413,8 +4409,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>43269</v>
+      <c r="A102" t="n">
+        <v>20180618</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -4453,8 +4449,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>43269</v>
+      <c r="A103" t="n">
+        <v>20180618</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -4493,8 +4489,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>43269</v>
+      <c r="A104" t="n">
+        <v>20180618</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -4533,8 +4529,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>43269</v>
+      <c r="A105" t="n">
+        <v>20180618</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -4573,8 +4569,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>43269</v>
+      <c r="A106" t="n">
+        <v>20180618</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -4613,8 +4609,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>43269</v>
+      <c r="A107" t="n">
+        <v>20180618</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -4653,8 +4649,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>43269</v>
+      <c r="A108" t="n">
+        <v>20180618</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -4693,8 +4689,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>43269</v>
+      <c r="A109" t="n">
+        <v>20180618</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -4733,8 +4729,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>43269</v>
+      <c r="A110" t="n">
+        <v>20180618</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -4773,8 +4769,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>43269</v>
+      <c r="A111" t="n">
+        <v>20180618</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -4813,8 +4809,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>43269</v>
+      <c r="A112" t="n">
+        <v>20180618</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4853,8 +4849,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>43269</v>
+      <c r="A113" t="n">
+        <v>20180618</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -4893,8 +4889,8 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>43276</v>
+      <c r="A114" t="n">
+        <v>20180625</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -4933,8 +4929,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>43276</v>
+      <c r="A115" t="n">
+        <v>20180625</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -4973,8 +4969,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>43276</v>
+      <c r="A116" t="n">
+        <v>20180625</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -5013,8 +5009,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>43276</v>
+      <c r="A117" t="n">
+        <v>20180625</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -5053,8 +5049,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>43276</v>
+      <c r="A118" t="n">
+        <v>20180625</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -5093,8 +5089,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>43276</v>
+      <c r="A119" t="n">
+        <v>20180625</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -5133,8 +5129,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>43276</v>
+      <c r="A120" t="n">
+        <v>20180625</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -5173,8 +5169,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>43276</v>
+      <c r="A121" t="n">
+        <v>20180625</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -5213,8 +5209,8 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>43276</v>
+      <c r="A122" t="n">
+        <v>20180625</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -5253,8 +5249,8 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>43276</v>
+      <c r="A123" t="n">
+        <v>20180625</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -5293,8 +5289,8 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>43276</v>
+      <c r="A124" t="n">
+        <v>20180625</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -5333,8 +5329,8 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>43276</v>
+      <c r="A125" t="n">
+        <v>20180625</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -5373,8 +5369,8 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>43276</v>
+      <c r="A126" t="n">
+        <v>20180625</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -5413,8 +5409,8 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
-        <v>43276</v>
+      <c r="A127" t="n">
+        <v>20180625</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -5453,8 +5449,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
-        <v>43276</v>
+      <c r="A128" t="n">
+        <v>20180625</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -5493,8 +5489,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
-        <v>43276</v>
+      <c r="A129" t="n">
+        <v>20180625</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -5533,8 +5529,8 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
-        <v>43283</v>
+      <c r="A130" t="n">
+        <v>20180702</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -5573,8 +5569,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
-        <v>43283</v>
+      <c r="A131" t="n">
+        <v>20180702</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -5613,8 +5609,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>43283</v>
+      <c r="A132" t="n">
+        <v>20180702</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -5653,8 +5649,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
-        <v>43283</v>
+      <c r="A133" t="n">
+        <v>20180702</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -5693,8 +5689,8 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
-        <v>43283</v>
+      <c r="A134" t="n">
+        <v>20180702</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -5733,8 +5729,8 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
-        <v>43283</v>
+      <c r="A135" t="n">
+        <v>20180702</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -5773,8 +5769,8 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
-        <v>43283</v>
+      <c r="A136" t="n">
+        <v>20180702</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -5813,8 +5809,8 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
-        <v>43283</v>
+      <c r="A137" t="n">
+        <v>20180702</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -5853,8 +5849,8 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
-        <v>43283</v>
+      <c r="A138" t="n">
+        <v>20180702</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -5893,8 +5889,8 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
-        <v>43283</v>
+      <c r="A139" t="n">
+        <v>20180702</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -5933,8 +5929,8 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
-        <v>43283</v>
+      <c r="A140" t="n">
+        <v>20180702</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -5973,8 +5969,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
-        <v>43283</v>
+      <c r="A141" t="n">
+        <v>20180702</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -6013,8 +6009,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
-        <v>43283</v>
+      <c r="A142" t="n">
+        <v>20180702</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -6053,8 +6049,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
-        <v>43283</v>
+      <c r="A143" t="n">
+        <v>20180702</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -6093,8 +6089,8 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
-        <v>43283</v>
+      <c r="A144" t="n">
+        <v>20180702</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -6133,8 +6129,8 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
-        <v>43283</v>
+      <c r="A145" t="n">
+        <v>20180702</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
